--- a/VitalSigns/CurrentBuild/CodeSystem-vkp-subject-identifiers.codesystem.xlsx
+++ b/VitalSigns/CurrentBuild/CodeSystem-vkp-subject-identifiers.codesystem.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/CodeSystem/vkp-subject-identifiers</t>
+    <t>http://hl7.no/fhir/CodeSystem/vkp-subject-identifiers.codesystem</t>
   </si>
   <si>
     <t>Version</t>
